--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/BE/10/seed2/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/BE/10/seed2/result_data_RandomForest.xlsx
@@ -482,7 +482,7 @@
         <v>-21.82</v>
       </c>
       <c r="B3" t="n">
-        <v>6.763900000000003</v>
+        <v>6.535700000000005</v>
       </c>
       <c r="C3" t="n">
         <v>-12.16</v>
@@ -788,7 +788,7 @@
         <v>-19.55</v>
       </c>
       <c r="B21" t="n">
-        <v>9.532000000000007</v>
+        <v>9.573200000000003</v>
       </c>
       <c r="C21" t="n">
         <v>-13.13</v>
@@ -822,7 +822,7 @@
         <v>-20.35</v>
       </c>
       <c r="B23" t="n">
-        <v>9.185400000000001</v>
+        <v>9.035400000000006</v>
       </c>
       <c r="C23" t="n">
         <v>-12.89</v>
@@ -856,7 +856,7 @@
         <v>-21.51</v>
       </c>
       <c r="B25" t="n">
-        <v>6.153499999999999</v>
+        <v>5.926799999999999</v>
       </c>
       <c r="C25" t="n">
         <v>-11.07</v>
@@ -899,7 +899,7 @@
         <v>-8.550000000000001</v>
       </c>
       <c r="E27" t="n">
-        <v>16.68729999999999</v>
+        <v>16.73229999999998</v>
       </c>
     </row>
     <row r="28">
@@ -967,7 +967,7 @@
         <v>-9.77</v>
       </c>
       <c r="E31" t="n">
-        <v>16.4247</v>
+        <v>16.5218</v>
       </c>
     </row>
     <row r="32">
@@ -1103,7 +1103,7 @@
         <v>-8.93</v>
       </c>
       <c r="E39" t="n">
-        <v>16.04249999999999</v>
+        <v>16.06409999999999</v>
       </c>
     </row>
     <row r="40">
@@ -1256,7 +1256,7 @@
         <v>-6.88</v>
       </c>
       <c r="E48" t="n">
-        <v>17.5509</v>
+        <v>17.50830000000001</v>
       </c>
     </row>
     <row r="49">
@@ -1307,7 +1307,7 @@
         <v>-7.18</v>
       </c>
       <c r="E51" t="n">
-        <v>17.1275</v>
+        <v>17.2364</v>
       </c>
     </row>
     <row r="52">
@@ -1324,7 +1324,7 @@
         <v>-6.93</v>
       </c>
       <c r="E52" t="n">
-        <v>17.1815</v>
+        <v>17.0353</v>
       </c>
     </row>
     <row r="53">
@@ -1332,7 +1332,7 @@
         <v>-21.36</v>
       </c>
       <c r="B53" t="n">
-        <v>5.538499999999998</v>
+        <v>5.513599999999998</v>
       </c>
       <c r="C53" t="n">
         <v>-12.98</v>
@@ -1375,7 +1375,7 @@
         <v>-10.06</v>
       </c>
       <c r="E55" t="n">
-        <v>16.65320000000001</v>
+        <v>16.61960000000001</v>
       </c>
     </row>
     <row r="56">
@@ -1392,7 +1392,7 @@
         <v>-8.92</v>
       </c>
       <c r="E56" t="n">
-        <v>16.3298</v>
+        <v>16.2625</v>
       </c>
     </row>
     <row r="57">
@@ -1400,7 +1400,7 @@
         <v>-22.67</v>
       </c>
       <c r="B57" t="n">
-        <v>4.932199999999997</v>
+        <v>4.888399999999997</v>
       </c>
       <c r="C57" t="n">
         <v>-15.01</v>
@@ -1409,7 +1409,7 @@
         <v>-8.31</v>
       </c>
       <c r="E57" t="n">
-        <v>16.61260000000001</v>
+        <v>16.67090000000001</v>
       </c>
     </row>
     <row r="58">
@@ -1434,7 +1434,7 @@
         <v>-21.94</v>
       </c>
       <c r="B59" t="n">
-        <v>4.694600000000001</v>
+        <v>4.777099999999998</v>
       </c>
       <c r="C59" t="n">
         <v>-14.55</v>
@@ -1604,7 +1604,7 @@
         <v>-21.67</v>
       </c>
       <c r="B69" t="n">
-        <v>5.209999999999996</v>
+        <v>5.282799999999997</v>
       </c>
       <c r="C69" t="n">
         <v>-10.8</v>
@@ -1681,7 +1681,7 @@
         <v>-6.42</v>
       </c>
       <c r="E73" t="n">
-        <v>17.24190000000001</v>
+        <v>17.15530000000001</v>
       </c>
     </row>
     <row r="74">
@@ -1774,7 +1774,7 @@
         <v>-20.57</v>
       </c>
       <c r="B79" t="n">
-        <v>9.237800000000002</v>
+        <v>8.936000000000002</v>
       </c>
       <c r="C79" t="n">
         <v>-9.779999999999999</v>
@@ -1842,7 +1842,7 @@
         <v>-22.74</v>
       </c>
       <c r="B83" t="n">
-        <v>5.345600000000001</v>
+        <v>5.226799999999998</v>
       </c>
       <c r="C83" t="n">
         <v>-13.03</v>
@@ -1953,7 +1953,7 @@
         <v>-7</v>
       </c>
       <c r="E89" t="n">
-        <v>17.28050000000001</v>
+        <v>17.29190000000002</v>
       </c>
     </row>
     <row r="90">
@@ -1970,7 +1970,7 @@
         <v>-8.890000000000001</v>
       </c>
       <c r="E90" t="n">
-        <v>16.75429999999998</v>
+        <v>16.65609999999998</v>
       </c>
     </row>
     <row r="91">
@@ -2012,7 +2012,7 @@
         <v>-22.29</v>
       </c>
       <c r="B93" t="n">
-        <v>5.444300000000001</v>
+        <v>5.487699999999998</v>
       </c>
       <c r="C93" t="n">
         <v>-11.3</v>
